--- a/Data/swaption elastic 0.5 hedge.xlsx
+++ b/Data/swaption elastic 0.5 hedge.xlsx
@@ -364,7 +364,7 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>5331.828424774233</v>
+        <v>-22337.74374456173</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -372,7 +372,7 @@
         <v>36</v>
       </c>
       <c r="B3">
-        <v>2371.193501819635</v>
+        <v>-69088.68401954346</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -380,7 +380,7 @@
         <v>60</v>
       </c>
       <c r="B4">
-        <v>564.0284474072865</v>
+        <v>-3707.083816524046</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -388,7 +388,7 @@
         <v>84</v>
       </c>
       <c r="B5">
-        <v>-398.8064924092719</v>
+        <v>4931.607364729515</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -396,7 +396,7 @@
         <v>96</v>
       </c>
       <c r="B6">
-        <v>-1589.97595414232</v>
+        <v>3292.149808862184</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -404,7 +404,7 @@
         <v>120</v>
       </c>
       <c r="B7">
-        <v>-709.0319433578135</v>
+        <v>62.75144641782267</v>
       </c>
     </row>
   </sheetData>
